--- a/biology/Médecine/Neuropathie_cornéenne/Neuropathie_cornéenne.xlsx
+++ b/biology/Médecine/Neuropathie_cornéenne/Neuropathie_cornéenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neuropathie_corn%C3%A9enne</t>
+          <t>Neuropathie_cornéenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neuropathie_corn%C3%A9enne</t>
+          <t>Neuropathie_cornéenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les douleurs neuropathiques sont des douleurs oculaires avec un examen subnormal (kératite absente ou minime), liées à des lésions nerveuses cornéennes (classiquement après Lasik, mais aussi dans la sécheresse oculaire, après PKE, herpès cornéen, maladie des petites fibres, fibromyalgie... 
 Elles est causée par une lésion primaire ou un dysfonctionnement du système nerveux et survient au niveau de la cornée. Cependant, la douleur cornéenne neuropathique (NCP) est actuellement une maladie mal définie. Les patients atteints de NCP sont extrêmement difficiles à gérer et les recommandations cliniques fondées sur des preuves pour la gestion des patients atteints de NCP sont rares. 
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Neuropathie_corn%C3%A9enne</t>
+          <t>Neuropathie_cornéenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes de la douleur neuropathique oculaire peuvent aller d'une douleur oculaire dévastatrice et incessante et d'une sensibilité sévère à la lumière ( photophobie ) dans le pire des cas, à une légère hyperalgésie ou dysesthésie telle qu'une sensation de sécheresse, de picotement ou de corps étranger dans les cas plus légers. 
 Les symptômes de douleur neuropathique légère peuvent ressembler aux symptômes cliniques de la sécheresse oculaire aqueuse, ce qui peut empêcher un diagnostic correct. Les sensations et les niveaux de douleur peuvent varier en fonction de la ou des sources des signaux inadaptés (par exemple, régénération axonale anormale, sensibilisation périphérique, etc.). 
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Neuropathie_corn%C3%A9enne</t>
+          <t>Neuropathie_cornéenne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Traitements disponibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les différents traitements peuvent soit tenter d'agir sur les causes des symptômes soit sur la douleur[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différents traitements peuvent soit tenter d'agir sur les causes des symptômes soit sur la douleur.
 Traitement de la surface oculaire
 1. Bouchons méatiques, lentilles sclérales, lunette à chambres humides
 2. Ipl, lipiflow, nulids
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Neuropathie_corn%C3%A9enne</t>
+          <t>Neuropathie_cornéenne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Traitements en phase de recherches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a deux molécules particulièrement prometteuses pour la neuropathie cornéenne, à savoir :
 La première étant la « SAF 312 » du laboratoire novartis, actuelemment en phase 2. Cette molécule permettrait de traiter la sécheresse oculaire ainsi que la douleur oculaire.
